--- a/josephus/ADcarry2/ADcarry.xlsx
+++ b/josephus/ADcarry2/ADcarry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my work\python_tutorial-master\python-practice\josephus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my work\python-practice\josephus\ADcarry2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FCD6F0-4BFE-4882-845B-BE7014C28824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298A8C1-03F6-40F8-AEBB-BBDF6AA08059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B0721447-E8DD-4AD0-B9F7-63BA634B9B6F}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H21:H22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,5 +628,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>